--- a/results/QSAR Toolbox Predictions/Eye_irrit_predictions.xlsx
+++ b/results/QSAR Toolbox Predictions/Eye_irrit_predictions.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$13:$AC$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$13:$AC$18</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Chemical #1</t>
   </si>
@@ -149,6 +149,67 @@
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t>Primary Irritation Index</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Severe skin irritation (Danish EPA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test organisms (species): Rabbit
+Endpoint: Primary Irritation Index
+Type of method: in Vivo
+Prediction approach: QSAR
+SAR/QSAR: Severe Skin Irritation in Rabbit - Danish QSAR DB battery model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test organisms (species): Rabbit
+Endpoint: Primary Irritation Index
+Type of method: in Vivo
+Prediction approach: External SAR/QSAR
+SAR/QSAR: Severe Skin Irritation in Rabbit - Danish QSAR DB battery model</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test organisms (species): Rabbit
+Endpoint: Primary Irritation Index
+Type of method: in Vivo
+Prediction approach: QSAR
+SAR/QSAR: Severe Skin Irritation in Rabbit - Danish QSAR DB Leadscope model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test organisms (species): Rabbit
+Endpoint: Primary Irritation Index
+Type of method: in Vivo
+Prediction approach: External SAR/QSAR
+SAR/QSAR: Severe Skin Irritation in Rabbit - Danish QSAR DB Leadscope model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test organisms (species): Rabbit
+Endpoint: Primary Irritation Index
+Type of method: in Vivo
+Prediction approach: QSAR
+SAR/QSAR: Severe Skin Irritation in Rabbit - Danish QSAR DB CASE Ultra model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test organisms (species): Rabbit
+Endpoint: Primary Irritation Index
+Type of method: in Vivo
+Prediction approach: External SAR/QSAR
+SAR/QSAR: Severe Skin Irritation in Rabbit - Danish QSAR DB CASE Ultra model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test organisms (species): Rabbit
+Endpoint: Primary Irritation Index
+Type of method: in Vivo
+Prediction approach: QSAR
+SAR/QSAR: Severe Skin Irritation in Rabbit - Danish QSAR DB SciQSAR model</t>
   </si>
 </sst>
 </file>
@@ -601,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AE14"/>
+  <dimension ref="A1:AE18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" state="frozen" activePane="bottomRight"/>
@@ -1127,8 +1188,372 @@
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
     </row>
+    <row r="15" s="2" customFormat="1">
+      <c r="A15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+    </row>
+    <row r="16" s="2" customFormat="1">
+      <c r="A16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+    </row>
+    <row r="17" s="2" customFormat="1">
+      <c r="A17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+    </row>
+    <row r="18" s="2" customFormat="1">
+      <c r="A18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A13:AC14"/>
+  <autoFilter ref="A13:AC18"/>
   <mergeCells>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
